--- a/results/csv/resultados_accd_01.xlsx
+++ b/results/csv/resultados_accd_01.xlsx
@@ -31,172 +31,172 @@
     <t>sperman_coef</t>
   </si>
   <si>
-    <t>('DecisionTree', (2.152455823720682, 0.7563956332469395))</t>
-  </si>
-  <si>
-    <t>('Knn10', (1.50162075637143, 0.7319053522713357))</t>
-  </si>
-  <si>
-    <t>('LDA', (1.3996420822118805, 0.6753846338630222))</t>
-  </si>
-  <si>
-    <t>('Knn5', (1.3365676142115455, 0.7128458097177036))</t>
-  </si>
-  <si>
-    <t>('Knn1', (0.8797058529523649, 0.6472733703791613))</t>
-  </si>
-  <si>
-    <t>('RandomForest', (0.8357953030477756, 0.7563509488032218))</t>
-  </si>
-  <si>
-    <t>('NaiveBayes', (0.3338598324800327, 0.5294468484269127))</t>
-  </si>
-  <si>
-    <t>('DecisionTree', (1.30792955542548, 0.7563956332469395))</t>
-  </si>
-  <si>
-    <t>('Knn10', (1.0352151423294413, 0.7319053522713357))</t>
-  </si>
-  <si>
-    <t>('Knn5', (1.0096716618243966, 0.7128458097177036))</t>
-  </si>
-  <si>
-    <t>('LDA', (0.9540711335934194, 0.6753846338630222))</t>
-  </si>
-  <si>
-    <t>('RandomForest', (0.9188081206169452, 0.7563509488032218))</t>
-  </si>
-  <si>
-    <t>('Knn1', (0.8858036022832777, 0.6472733703791613))</t>
-  </si>
-  <si>
-    <t>('NaiveBayes', (0.7887868599085172, 0.5294468484269127))</t>
-  </si>
-  <si>
-    <t>('DecisionTree', (1.288720402068065, 0.7563956332469395))</t>
-  </si>
-  <si>
-    <t>('Knn10', (1.1033602451876419, 0.7319053522713357))</t>
-  </si>
-  <si>
-    <t>('Knn5', (1.0625786486820505, 0.7128458097177036))</t>
-  </si>
-  <si>
-    <t>('LDA', (1.0200482587931086, 0.6753846338630222))</t>
-  </si>
-  <si>
-    <t>('RandomForest', (0.9243685526472698, 0.7563509488032218))</t>
-  </si>
-  <si>
-    <t>('Knn1', (0.9178990645072813, 0.6472733703791613))</t>
-  </si>
-  <si>
-    <t>('NaiveBayes', (0.6782793576796583, 0.5294468484269127))</t>
-  </si>
-  <si>
-    <t>('DecisionTree', (1.291655539208844, 0.7563956332469395))</t>
-  </si>
-  <si>
-    <t>('Knn10', (1.0823630895112442, 0.7319053522713357))</t>
-  </si>
-  <si>
-    <t>('Knn5', (1.0385182414081058, 0.7128458097177036))</t>
-  </si>
-  <si>
-    <t>('LDA', (1.024061580496267, 0.6753846338630222))</t>
-  </si>
-  <si>
-    <t>('RandomForest', (0.9437561165772619, 0.7563509488032218))</t>
-  </si>
-  <si>
-    <t>('Knn1', (0.8849027567760828, 0.6472733703791613))</t>
-  </si>
-  <si>
-    <t>('NaiveBayes', (0.7318905114027731, 0.5294468484269127))</t>
-  </si>
-  <si>
-    <t>('DecisionTree', (1.2658252125881269, 0.7563956332469395))</t>
-  </si>
-  <si>
-    <t>('Knn10', (1.0896457069517156, 0.7319053522713357))</t>
-  </si>
-  <si>
-    <t>('Knn5', (1.0558557980684298, 0.7128458097177036))</t>
-  </si>
-  <si>
-    <t>('LDA', (1.0246545042156294, 0.6753846338630222))</t>
-  </si>
-  <si>
-    <t>('RandomForest', (0.9265871683007507, 0.7563509488032218))</t>
-  </si>
-  <si>
-    <t>('Knn1', (0.9211048569605368, 0.6472733703791613))</t>
-  </si>
-  <si>
-    <t>('NaiveBayes', (0.7161566190348884, 0.5294468484269127))</t>
-  </si>
-  <si>
-    <t>('DecisionTree', (1.249978892616561, 0.7563956332469395))</t>
-  </si>
-  <si>
-    <t>('Knn10', (1.0967373063842012, 0.7319053522713357))</t>
-  </si>
-  <si>
-    <t>('Knn5', (1.0512067538027698, 0.7128458097177036))</t>
-  </si>
-  <si>
-    <t>('LDA', (1.0231485362687374, 0.6753846338630222))</t>
-  </si>
-  <si>
-    <t>('RandomForest', (0.9154259215142267, 0.7563509488032218))</t>
-  </si>
-  <si>
-    <t>('Knn1', (0.9081463283978078, 0.6472733703791613))</t>
-  </si>
-  <si>
-    <t>('NaiveBayes', (0.7477732752941236, 0.5294468484269127))</t>
-  </si>
-  <si>
-    <t>('LDA', (1.0307615230568241, 0.6753846338630222))</t>
-  </si>
-  <si>
-    <t>('DecisionTree', (0.9863844882557345, 0.7563956332469395))</t>
-  </si>
-  <si>
-    <t>('Knn10', (0.9413363574951104, 0.7319053522713357))</t>
-  </si>
-  <si>
-    <t>('Knn5', (0.904438574548494, 0.7128458097177036))</t>
-  </si>
-  <si>
-    <t>('NaiveBayes', (0.8427564308288095, 0.5294468484269127))</t>
-  </si>
-  <si>
-    <t>('Knn1', (0.8230907581542064, 0.6472733703791613))</t>
-  </si>
-  <si>
-    <t>('RandomForest', (0.7652509260605409, 0.7563509488032218))</t>
-  </si>
-  <si>
-    <t>('DecisionTree', (1.2947909316465611, 0.7563956332469395))</t>
-  </si>
-  <si>
-    <t>('Knn10', (1.075539712949798, 0.7319053522713357))</t>
-  </si>
-  <si>
-    <t>('Knn5', (1.040689388898217, 0.7128458097177036))</t>
-  </si>
-  <si>
-    <t>('LDA', (1.0217672422454496, 0.6753846338630222))</t>
-  </si>
-  <si>
-    <t>('RandomForest', (0.9395479505615839, 0.7563509488032218))</t>
-  </si>
-  <si>
-    <t>('Knn1', (0.9047596558318679, 0.6472733703791613))</t>
-  </si>
-  <si>
-    <t>('NaiveBayes', (0.7182003855512552, 0.5294468484269127))</t>
+    <t>('DecisionTree', (2.233954249025107, 0.7540653475337438))</t>
+  </si>
+  <si>
+    <t>('Knn10', (1.479402190895932, 0.7319053522713357))</t>
+  </si>
+  <si>
+    <t>('LDA', (1.4081045806319594, 0.6753846338630222))</t>
+  </si>
+  <si>
+    <t>('Knn5', (1.3108624895035417, 0.7128458097177036))</t>
+  </si>
+  <si>
+    <t>('Knn1', (0.8463931672647643, 0.6472733703791613))</t>
+  </si>
+  <si>
+    <t>('RandomForest', (0.8375589217023194, 0.7594959733070695))</t>
+  </si>
+  <si>
+    <t>('NaiveBayes', (0.3523928679837268, 0.5294468484269127))</t>
+  </si>
+  <si>
+    <t>('DecisionTree', (1.317034368673276, 0.7540653475337438))</t>
+  </si>
+  <si>
+    <t>('Knn10', (1.0335739632270662, 0.7319053522713357))</t>
+  </si>
+  <si>
+    <t>('Knn5', (1.0052177117125636, 0.7128458097177036))</t>
+  </si>
+  <si>
+    <t>('LDA', (0.9552120772111133, 0.6753846338630222))</t>
+  </si>
+  <si>
+    <t>('RandomForest', (0.9169749356503704, 0.7594959733070695))</t>
+  </si>
+  <si>
+    <t>('Knn1', (0.8786059638221791, 0.6472733703791613))</t>
+  </si>
+  <si>
+    <t>('NaiveBayes', (0.8481621349153448, 0.5294468484269127))</t>
+  </si>
+  <si>
+    <t>('DecisionTree', (1.2928406096289797, 0.7540653475337438))</t>
+  </si>
+  <si>
+    <t>('Knn10', (1.101322324033936, 0.7319053522713357))</t>
+  </si>
+  <si>
+    <t>('Knn5', (1.0612108946257937, 0.7128458097177036))</t>
+  </si>
+  <si>
+    <t>('LDA', (1.0276330403700729, 0.6753846338630222))</t>
+  </si>
+  <si>
+    <t>('RandomForest', (0.926484135829032, 0.7594959733070695))</t>
+  </si>
+  <si>
+    <t>('Knn1', (0.910468185520431, 0.6472733703791613))</t>
+  </si>
+  <si>
+    <t>('NaiveBayes', (0.7224559695684375, 0.5294468484269127))</t>
+  </si>
+  <si>
+    <t>('DecisionTree', (1.3040207515107816, 0.7540653475337438))</t>
+  </si>
+  <si>
+    <t>('Knn10', (1.0767032399724972, 0.7319053522713357))</t>
+  </si>
+  <si>
+    <t>('Knn5', (1.0364286097620394, 0.7128458097177036))</t>
+  </si>
+  <si>
+    <t>('LDA', (1.0289667489904193, 0.6753846338630222))</t>
+  </si>
+  <si>
+    <t>('RandomForest', (0.9440752102657682, 0.7594959733070695))</t>
+  </si>
+  <si>
+    <t>('Knn1', (0.8781849628288728, 0.6472733703791613))</t>
+  </si>
+  <si>
+    <t>('NaiveBayes', (0.7873294306442793, 0.5294468484269127))</t>
+  </si>
+  <si>
+    <t>('DecisionTree', (1.2818136118202792, 0.7540653475337438))</t>
+  </si>
+  <si>
+    <t>('Knn10', (1.0864831418368561, 0.7319053522713357))</t>
+  </si>
+  <si>
+    <t>('Knn5', (1.0543798493069336, 0.7128458097177036))</t>
+  </si>
+  <si>
+    <t>('LDA', (1.0362931273300686, 0.6753846338630222))</t>
+  </si>
+  <si>
+    <t>('RandomForest', (0.9289772820964696, 0.7594959733070695))</t>
+  </si>
+  <si>
+    <t>('Knn1', (0.9140891809248314, 0.6472733703791613))</t>
+  </si>
+  <si>
+    <t>('NaiveBayes', (0.7327397044023539, 0.5294468484269127))</t>
+  </si>
+  <si>
+    <t>('DecisionTree', (1.2643666747871574, 0.7540653475337438))</t>
+  </si>
+  <si>
+    <t>('Knn10', (1.092438029443945, 0.7319053522713357))</t>
+  </si>
+  <si>
+    <t>('Knn5', (1.0477354130651249, 0.7128458097177036))</t>
+  </si>
+  <si>
+    <t>('LDA', (1.0323956944926018, 0.6753846338630222))</t>
+  </si>
+  <si>
+    <t>('RandomForest', (0.9144641763688443, 0.7594959733070695))</t>
+  </si>
+  <si>
+    <t>('Knn1', (0.899253550702905, 0.6472733703791613))</t>
+  </si>
+  <si>
+    <t>('NaiveBayes', (0.8039147510219499, 0.5294468484269127))</t>
+  </si>
+  <si>
+    <t>('LDA', (1.0424900022499681, 0.6753846338630222))</t>
+  </si>
+  <si>
+    <t>('DecisionTree', (1.001835319538069, 0.7540653475337438))</t>
+  </si>
+  <si>
+    <t>('Knn10', (0.9380387414990355, 0.7319053522713357))</t>
+  </si>
+  <si>
+    <t>('Knn5', (0.9013388739689342, 0.7128458097177036))</t>
+  </si>
+  <si>
+    <t>('NaiveBayes', (0.8991628017162682, 0.5294468484269127))</t>
+  </si>
+  <si>
+    <t>('Knn1', (0.8118854646461315, 0.6472733703791613))</t>
+  </si>
+  <si>
+    <t>('RandomForest', (0.764657542026064, 0.7594959733070695))</t>
+  </si>
+  <si>
+    <t>('DecisionTree', (1.3130942999717679, 0.7540653475337438))</t>
+  </si>
+  <si>
+    <t>('Knn10', (1.0722123898583404, 0.7319053522713357))</t>
+  </si>
+  <si>
+    <t>('Knn5', (1.031972445253473, 0.7128458097177036))</t>
+  </si>
+  <si>
+    <t>('LDA', (1.031195942505484, 0.6753846338630222))</t>
+  </si>
+  <si>
+    <t>('RandomForest', (0.93673667049728, 0.7594959733070695))</t>
+  </si>
+  <si>
+    <t>('Knn1', (0.896225895899366, 0.6472733703791613))</t>
+  </si>
+  <si>
+    <t>('NaiveBayes', (0.7701337078425116, 0.5294468484269127))</t>
   </si>
 </sst>
 </file>
